--- a/scenarios_and_results/Scenario_A.xlsx
+++ b/scenarios_and_results/Scenario_A.xlsx
@@ -634,73 +634,73 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4129.736293336892</v>
+        <v>4129.736293336802</v>
       </c>
       <c r="C2">
-        <v>1.15632616213433</v>
+        <v>1.156326162134305</v>
       </c>
       <c r="D2">
-        <v>7.817904426171613</v>
+        <v>7.817904426171529</v>
       </c>
       <c r="E2">
-        <v>7.817904426171613</v>
+        <v>7.817904426171529</v>
       </c>
       <c r="F2">
-        <v>0.1266872810707892</v>
+        <v>0.1266872810707864</v>
       </c>
       <c r="G2">
-        <v>7.817904426171613E-05</v>
+        <v>7.817904426171529E-05</v>
       </c>
       <c r="H2">
-        <v>0.1267654601150509</v>
+        <v>0.1267654601150482</v>
       </c>
       <c r="I2">
-        <v>7.817904426171613E-05</v>
+        <v>7.817904426171529E-05</v>
       </c>
       <c r="J2">
-        <v>7.817904426171613</v>
+        <v>7.817904426171529</v>
       </c>
       <c r="K2">
-        <v>0.1267654601150509</v>
+        <v>0.1267654601150482</v>
       </c>
       <c r="L2">
-        <v>0.5922148930634915</v>
+        <v>0.592214893063487</v>
       </c>
       <c r="M2">
-        <v>16.21476206471448</v>
+        <v>16.2147620647143</v>
       </c>
       <c r="N2">
-        <v>0.2161045596568002</v>
+        <v>0.2161045596568026</v>
       </c>
       <c r="O2">
-        <v>0.2161045596568002</v>
+        <v>0.2161045596568026</v>
       </c>
       <c r="P2">
-        <v>0.126765460115199</v>
+        <v>0.1267654601151973</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>16.21476206473342</v>
+        <v>16.21476206473337</v>
       </c>
       <c r="S2">
-        <v>16.21476206471448</v>
+        <v>16.2147620647143</v>
       </c>
       <c r="T2">
-        <v>16.20476206471448</v>
+        <v>16.20476206471431</v>
       </c>
       <c r="U2">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3.200985280714566</v>
+        <v>3.200847731899513</v>
       </c>
       <c r="X2">
-        <v>4.616919145457046</v>
+        <v>4.617056694272017</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -773,46 +773,46 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>2282.563620594573</v>
+        <v>2282.563620594554</v>
       </c>
       <c r="C4">
-        <v>2.198268546086016</v>
+        <v>2.198268546085997</v>
       </c>
       <c r="D4">
-        <v>5.383223268760323</v>
+        <v>5.383223268760366</v>
       </c>
       <c r="E4">
-        <v>5.383223268760323</v>
+        <v>5.383223268760366</v>
       </c>
       <c r="F4">
-        <v>0.2212061216886064</v>
+        <v>0.2212061216886046</v>
       </c>
       <c r="G4">
-        <v>0.006567532387887594</v>
+        <v>0.006567532387887647</v>
       </c>
       <c r="H4">
-        <v>0.227773654076494</v>
+        <v>0.2277736540764922</v>
       </c>
       <c r="I4">
-        <v>0.006567532387887594</v>
+        <v>0.006567532387887647</v>
       </c>
       <c r="J4">
-        <v>5.383223268760323</v>
+        <v>5.383223268760366</v>
       </c>
       <c r="K4">
-        <v>0.227773654076494</v>
+        <v>0.2277736540764922</v>
       </c>
       <c r="L4">
-        <v>0.4077851069365084</v>
+        <v>0.4077851069365129</v>
       </c>
       <c r="M4">
-        <v>42.31176057628888</v>
+        <v>42.31176057628821</v>
       </c>
       <c r="N4">
-        <v>0.2692250058889092</v>
+        <v>0.2692250058889136</v>
       </c>
       <c r="O4">
-        <v>0.2692250058889092</v>
+        <v>0.2692250058889136</v>
       </c>
       <c r="P4">
         <v>0.2277736540765372</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>42.31176057629691</v>
+        <v>42.31176057629656</v>
       </c>
       <c r="S4">
-        <v>42.31176057628888</v>
+        <v>42.31176057628821</v>
       </c>
       <c r="T4">
-        <v>41.09176057628888</v>
+        <v>41.09176057628821</v>
       </c>
       <c r="U4">
         <v>1.22</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.527131051963944</v>
+        <v>3.527268600778981</v>
       </c>
       <c r="X4">
-        <v>1.856092216796378</v>
+        <v>1.855954667981386</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -912,76 +912,76 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>437.6410248910727</v>
+        <v>437.6410248910858</v>
       </c>
       <c r="C6">
-        <v>0.1802380796911394</v>
+        <v>0.1802380796911448</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2752719710496054</v>
+        <v>0.2752719710496169</v>
       </c>
       <c r="F6">
-        <v>0.02012876867857778</v>
+        <v>0.02012876867857838</v>
       </c>
       <c r="G6">
-        <v>0.001238723869723225</v>
+        <v>0.001238723869723276</v>
       </c>
       <c r="H6">
-        <v>0.021367492548301</v>
+        <v>0.02136749254830166</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.849869921803473E-17</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.257722033187747E-15</v>
       </c>
       <c r="K6">
-        <v>0.02012876867857778</v>
+        <v>0.02012876867857844</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.60041472976038E+16</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3.280669918925961E-16</v>
       </c>
       <c r="O6">
-        <v>0.07180254866467133</v>
+        <v>0.07180254866467216</v>
       </c>
       <c r="P6">
-        <v>0.06644227637859396</v>
+        <v>0.06644227637859576</v>
       </c>
       <c r="Q6">
-        <v>0.04507478383034158</v>
+        <v>0.04507478383034284</v>
       </c>
       <c r="R6">
-        <v>241.3695667061603</v>
+        <v>241.3695667061567</v>
       </c>
       <c r="S6">
-        <v>241.3695667063369</v>
+        <v>241.3695667063338</v>
       </c>
       <c r="T6">
-        <v>73.12320466855839</v>
+        <v>73.12320466855752</v>
       </c>
       <c r="U6">
         <v>4.500000000000001</v>
       </c>
       <c r="V6">
-        <v>163.7463620377785</v>
+        <v>163.7463620377763</v>
       </c>
       <c r="W6">
-        <v>0.2752719710496054</v>
+        <v>0.2752719710496169</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>5.196042179209002E-17</v>
       </c>
       <c r="Y6">
-        <v>0.2752719710496054</v>
+        <v>0.2752719710496157</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1200,76 +1200,76 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>0.05873404923153171</v>
+        <v>0.05873404923153126</v>
       </c>
       <c r="C2">
-        <v>0.04196409989607705</v>
+        <v>0.04196409989607703</v>
       </c>
       <c r="D2">
-        <v>0.04196409989605761</v>
+        <v>0.04196409989605759</v>
       </c>
       <c r="E2">
-        <v>216.3266405561603</v>
+        <v>216.3266405561587</v>
       </c>
       <c r="F2">
-        <v>0.2334954317659619</v>
+        <v>0.2334954317659617</v>
       </c>
       <c r="G2">
         <v>5.564171097302578</v>
       </c>
       <c r="H2">
-        <v>0.0505112823391407</v>
+        <v>0.05051128233914029</v>
       </c>
       <c r="I2">
-        <v>0.0505112823391407</v>
+        <v>0.05051128233914029</v>
       </c>
       <c r="J2">
-        <v>0.004368225977656856</v>
+        <v>0.004368225977656852</v>
       </c>
       <c r="K2">
-        <v>0.0001565849752513362</v>
+        <v>0.0001565849752513349</v>
       </c>
       <c r="L2">
-        <v>0.004524810952908191</v>
+        <v>0.004524810952908187</v>
       </c>
       <c r="M2">
-        <v>0.001653940894794726</v>
+        <v>0.001653940894794636</v>
       </c>
       <c r="N2">
-        <v>0.00617875184768921</v>
+        <v>0.006178751847689103</v>
       </c>
       <c r="O2">
-        <v>0.0505112823391407</v>
+        <v>0.05051128233914029</v>
       </c>
       <c r="P2">
-        <v>122.3241929638176</v>
+        <v>122.3241929638167</v>
       </c>
       <c r="Q2">
-        <v>0.159774668280508</v>
+        <v>0.1597746682805069</v>
       </c>
       <c r="R2">
-        <v>0.1374062147213643</v>
+        <v>0.1374062147213632</v>
       </c>
       <c r="S2">
-        <v>0.03111951042515812</v>
+        <v>0.03111951042515811</v>
       </c>
       <c r="T2">
-        <v>0.004104088969836336</v>
+        <v>0.004104088969836334</v>
       </c>
       <c r="U2">
-        <v>0.02701542145532179</v>
+        <v>0.02701542145532177</v>
       </c>
       <c r="V2">
-        <v>122.3241929635462</v>
+        <v>122.3241929635451</v>
       </c>
       <c r="W2">
-        <v>86.48020353805114</v>
+        <v>86.48020353805178</v>
       </c>
       <c r="X2">
         <v>3.100000000000001</v>
       </c>
       <c r="Y2">
-        <v>32.74398942576643</v>
+        <v>32.74398942576492</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1333,76 +1333,76 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>2.181714084314746</v>
+        <v>2.181714084314753</v>
       </c>
       <c r="C4">
-        <v>0.8233646464888431</v>
+        <v>0.8233646464888443</v>
       </c>
       <c r="D4">
-        <v>0.8233646464891836</v>
+        <v>0.8233646464891847</v>
       </c>
       <c r="E4">
-        <v>153.5753814980419</v>
+        <v>153.5753814980499</v>
       </c>
       <c r="F4">
-        <v>11.10920511667541</v>
+        <v>11.10920511667487</v>
       </c>
       <c r="G4">
-        <v>13.49244853303445</v>
+        <v>13.49244853303377</v>
       </c>
       <c r="H4">
-        <v>1.706100413933426</v>
+        <v>1.706100413933431</v>
       </c>
       <c r="I4">
-        <v>1.706100413933426</v>
+        <v>1.706100413933431</v>
       </c>
       <c r="J4">
-        <v>0.1256994472072496</v>
+        <v>0.1256994472072474</v>
       </c>
       <c r="K4">
-        <v>0.001706100413933426</v>
+        <v>0.001706100413933431</v>
       </c>
       <c r="L4">
-        <v>0.127405547621183</v>
+        <v>0.1274055476211808</v>
       </c>
       <c r="M4">
-        <v>0.03431498881262997</v>
+        <v>0.03431498881263128</v>
       </c>
       <c r="N4">
-        <v>0.1617205364338447</v>
+        <v>0.1617205364338466</v>
       </c>
       <c r="O4">
-        <v>1.706100413933426</v>
+        <v>1.706100413933431</v>
       </c>
       <c r="P4">
-        <v>94.78957692822151</v>
+        <v>94.78957692822065</v>
       </c>
       <c r="Q4">
-        <v>0.3024833775364035</v>
+        <v>0.302483377536404</v>
       </c>
       <c r="R4">
-        <v>0.2365420012332718</v>
+        <v>0.2365420012332723</v>
       </c>
       <c r="S4">
-        <v>1.465398887599981</v>
+        <v>1.465398887599953</v>
       </c>
       <c r="T4">
-        <v>0.8755000959045167</v>
+        <v>0.8755000959045179</v>
       </c>
       <c r="U4">
-        <v>0.5898987916954644</v>
+        <v>0.5898987916954354</v>
       </c>
       <c r="V4">
-        <v>94.78957692824008</v>
+        <v>94.7895769282409</v>
       </c>
       <c r="W4">
-        <v>73.67646486729858</v>
+        <v>73.67646486729703</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>20.11311206092292</v>
+        <v>20.11311206092362</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1410,13 +1410,13 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>4.068553419713631</v>
+        <v>4.068553419713603</v>
       </c>
       <c r="C5">
-        <v>1.004126445170377</v>
+        <v>1.004126445170396</v>
       </c>
       <c r="D5">
-        <v>0.7430535694260789</v>
+        <v>0.7430535694260928</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1434,52 +1434,52 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05280047687515353</v>
+        <v>0.05280047687515452</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05280047687515353</v>
+        <v>0.05280047687515452</v>
       </c>
       <c r="M5">
-        <v>0.05500323290071524</v>
+        <v>0.05500323290071295</v>
       </c>
       <c r="N5">
-        <v>0.1078037097758535</v>
+        <v>0.1078037097758496</v>
       </c>
       <c r="O5">
-        <v>3.010729530588087</v>
+        <v>3.010729530588066</v>
       </c>
       <c r="P5">
-        <v>35.80650758582469</v>
+        <v>35.80650758582451</v>
       </c>
       <c r="Q5">
-        <v>0.4625380993042426</v>
+        <v>0.4625380993042307</v>
       </c>
       <c r="R5">
-        <v>0.4625380993042426</v>
+        <v>0.4625380993042307</v>
       </c>
       <c r="S5">
-        <v>0.4518569003266696</v>
+        <v>0.4518569003266781</v>
       </c>
       <c r="T5">
-        <v>0.4518569003266696</v>
+        <v>0.4518569003266781</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>35.80650758581962</v>
+        <v>35.80650758581859</v>
       </c>
       <c r="W5">
-        <v>17.53743613922038</v>
+        <v>17.53743613922083</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>18.26907144660431</v>
+        <v>18.26907144660368</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1487,22 +1487,22 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.06180609661508484</v>
+        <v>0.06180609661508558</v>
       </c>
       <c r="C6">
-        <v>0.4572129283134249</v>
+        <v>0.4572129283134392</v>
       </c>
       <c r="D6">
-        <v>0.3694688037088463</v>
+        <v>0.3694688037088454</v>
       </c>
       <c r="E6">
-        <v>26.76502628383302</v>
+        <v>26.76502628383252</v>
       </c>
       <c r="F6">
-        <v>46.18422261921541</v>
+        <v>46.18422261921685</v>
       </c>
       <c r="G6">
-        <v>125.0016839191926</v>
+        <v>125.0016839191968</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1511,52 +1511,52 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01648771776700919</v>
+        <v>0.01648771776700971</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01648771776700919</v>
+        <v>0.01648771776700971</v>
       </c>
       <c r="M6">
-        <v>0.04899907619075356</v>
+        <v>0.04899907619075144</v>
       </c>
       <c r="N6">
-        <v>0.06548679395777951</v>
+        <v>0.06548679395777784</v>
       </c>
       <c r="O6">
-        <v>1.236121932301696</v>
+        <v>1.236121932301711</v>
       </c>
       <c r="P6">
-        <v>52.97761672735987</v>
+        <v>52.97761672735793</v>
       </c>
       <c r="Q6">
-        <v>0.3240619215454169</v>
+        <v>0.3240619215454106</v>
       </c>
       <c r="R6">
-        <v>0.3819261821484677</v>
+        <v>0.3819261821484733</v>
       </c>
       <c r="S6">
-        <v>0.1273963289877157</v>
+        <v>0.1273963289877197</v>
       </c>
       <c r="T6">
-        <v>0.002698927915834147</v>
+        <v>0.002698927915834232</v>
       </c>
       <c r="U6">
-        <v>0.1246974010718816</v>
+        <v>0.1246974010718855</v>
       </c>
       <c r="V6">
-        <v>52.97761672737344</v>
+        <v>52.97761672737144</v>
       </c>
       <c r="W6">
-        <v>13.33826165215641</v>
+        <v>13.33826165215666</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>39.63935507520348</v>
+        <v>39.63935507520127</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1194688037088463</v>
+        <v>0.1194688037088454</v>
       </c>
       <c r="D7">
-        <v>1.017769825328076</v>
+        <v>1.017769825328106</v>
       </c>
       <c r="E7">
-        <v>2.555964450302424</v>
+        <v>2.557232498902628</v>
       </c>
       <c r="F7">
-        <v>250.4602027849999</v>
+        <v>250.3360076992225</v>
       </c>
       <c r="G7">
-        <v>246.0872748946596</v>
+        <v>245.9652482018906</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1588,52 +1588,52 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.005904744289229402</v>
+        <v>0.005904744289228119</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.005904744289229402</v>
+        <v>0.005904744289228119</v>
       </c>
       <c r="M7">
-        <v>0.0391700395435865</v>
+        <v>0.0391700395435885</v>
       </c>
       <c r="N7">
-        <v>0.04507478383034367</v>
+        <v>0.04507478383034264</v>
       </c>
       <c r="O7">
-        <v>0.640167374533996</v>
+        <v>0.6401673745339901</v>
       </c>
       <c r="P7">
-        <v>70.41093568010659</v>
+        <v>70.41093568010837</v>
       </c>
       <c r="Q7">
-        <v>0.784226365168105</v>
+        <v>0.784226365168101</v>
       </c>
       <c r="R7">
-        <v>0.07180254866467467</v>
+        <v>0.07180254866467187</v>
       </c>
       <c r="S7">
-        <v>0.04478305171697697</v>
+        <v>0.04478305171697666</v>
       </c>
       <c r="T7">
-        <v>0.04478305171697697</v>
+        <v>0.04478305171697666</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>70.41093567624475</v>
+        <v>70.4109356762438</v>
       </c>
       <c r="W7">
-        <v>9.223750731639061</v>
+        <v>9.223750731637141</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>61.18718494846754</v>
+        <v>61.18718494847123</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1641,13 +1641,13 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.03549110638730048</v>
+        <v>0.03549110638730005</v>
       </c>
       <c r="C8">
-        <v>0.005130443360284019</v>
+        <v>0.005130443360283838</v>
       </c>
       <c r="D8">
-        <v>0.01832301200101435</v>
+        <v>0.01832301200101371</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1665,52 +1665,52 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01109291335458647</v>
+        <v>0.01109291335458608</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01109291335458647</v>
+        <v>0.01109291335458608</v>
       </c>
       <c r="M8">
-        <v>0.005223362639279599</v>
+        <v>0.005223362639280214</v>
       </c>
       <c r="N8">
-        <v>0.01631627599386143</v>
+        <v>0.0163162759938611</v>
       </c>
       <c r="O8">
-        <v>0.126753951383216</v>
+        <v>0.1267539513832145</v>
       </c>
       <c r="P8">
-        <v>128.7240028086933</v>
+        <v>128.7240028086966</v>
       </c>
       <c r="Q8">
-        <v>0.789697084329483</v>
+        <v>0.7896970843295013</v>
       </c>
       <c r="R8">
-        <v>0.789697084329483</v>
+        <v>0.7896970843295013</v>
       </c>
       <c r="S8">
-        <v>0.02052177344113608</v>
+        <v>0.02052177344113535</v>
       </c>
       <c r="T8">
-        <v>0.02052177344113608</v>
+        <v>0.02052177344113535</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>128.7240028086567</v>
+        <v>128.7240028086557</v>
       </c>
       <c r="W8">
-        <v>87.51532582246055</v>
+        <v>87.51532582245852</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>41.20867698623276</v>
+        <v>41.20867698623811</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1718,13 +1718,13 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.06671260599113076</v>
+        <v>0.06671260599112995</v>
       </c>
       <c r="C9">
-        <v>0.009643690526844516</v>
+        <v>0.009643690526844176</v>
       </c>
       <c r="D9">
-        <v>0.02748451800150687</v>
+        <v>0.0274845180015059</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1742,52 +1742,52 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.001978790369426238</v>
+        <v>0.001978790369426168</v>
       </c>
       <c r="K9">
-        <v>0.0005932084924731348</v>
+        <v>0.0005932084924731276</v>
       </c>
       <c r="L9">
-        <v>0.002571998861899373</v>
+        <v>0.002571998861899296</v>
       </c>
       <c r="M9">
-        <v>0.001730655207166605</v>
+        <v>0.00173065520716705</v>
       </c>
       <c r="N9">
-        <v>0.00430265406906418</v>
+        <v>0.004302654069064558</v>
       </c>
       <c r="O9">
-        <v>0.1901309270747226</v>
+        <v>0.1901309270747203</v>
       </c>
       <c r="P9">
-        <v>22.62995366016918</v>
+        <v>22.62995366017138</v>
       </c>
       <c r="Q9">
-        <v>0.7896970843294833</v>
+        <v>0.7896970843295015</v>
       </c>
       <c r="R9">
-        <v>0.7896970843294832</v>
+        <v>0.7896970843295013</v>
       </c>
       <c r="S9">
-        <v>0.01923916260105481</v>
+        <v>0.01923916260105413</v>
       </c>
       <c r="T9">
-        <v>0.01923916260105481</v>
+        <v>0.01923916260105413</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>22.62995366015972</v>
+        <v>22.62995366016198</v>
       </c>
       <c r="W9">
-        <v>10.40751444213261</v>
+        <v>10.40751444213237</v>
       </c>
       <c r="X9">
         <v>3.120000000000001</v>
       </c>
       <c r="Y9">
-        <v>9.102439218036565</v>
+        <v>9.102439218039017</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1798,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01278776230934397</v>
+        <v>0.01278776230934336</v>
       </c>
       <c r="D10">
-        <v>0.01845083230559236</v>
+        <v>0.01845083230559224</v>
       </c>
       <c r="E10">
-        <v>28.41995778853939</v>
+        <v>28.43019779563709</v>
       </c>
       <c r="F10">
-        <v>0.4124761228512747</v>
+        <v>0.4124761228512765</v>
       </c>
       <c r="G10">
-        <v>22.3554209381793</v>
+        <v>22.35542093817956</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1828,34 +1828,34 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0009087133356920695</v>
+        <v>0.0009080036156890463</v>
       </c>
       <c r="N10">
-        <v>0.001016830578341506</v>
+        <v>0.001016120858338483</v>
       </c>
       <c r="O10">
-        <v>0.01172255400021362</v>
+        <v>0.0117267777586393</v>
       </c>
       <c r="P10">
-        <v>77.51837489300628</v>
+        <v>77.42993296006708</v>
       </c>
       <c r="Q10">
-        <v>0.1046462284442826</v>
+        <v>0.1046839335714382</v>
       </c>
       <c r="R10">
-        <v>0.07252741089133397</v>
+        <v>0.07255354327364973</v>
       </c>
       <c r="S10">
-        <v>0.001042809759508907</v>
+        <v>0.001042809759508912</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.001042809759508907</v>
+        <v>0.001042809759508912</v>
       </c>
       <c r="V10">
-        <v>86.74138573581979</v>
+        <v>86.64962185284799</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>77.51837489300628</v>
+        <v>77.42993296006708</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios_and_results/Scenario_A.xlsx
+++ b/scenarios_and_results/Scenario_A.xlsx
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3.199991321649129</v>
+        <v>3.200847731899513</v>
       </c>
       <c r="X2">
-        <v>4.6179131045224</v>
+        <v>4.617056694272017</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.528125011029365</v>
+        <v>3.527268600778981</v>
       </c>
       <c r="X4">
-        <v>1.855098257731002</v>
+        <v>1.855954667981386</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0.2752719710496169</v>
       </c>
       <c r="X6">
-        <v>5.198197312743851E-17</v>
+        <v>5.196042179209002E-17</v>
       </c>
       <c r="Y6">
         <v>0.2752719710496157</v>
@@ -1375,7 +1375,7 @@
         <v>1.706100413933431</v>
       </c>
       <c r="P4">
-        <v>94.78957692822067</v>
+        <v>94.78957692822065</v>
       </c>
       <c r="Q4">
         <v>0.302483377536404</v>
@@ -1396,13 +1396,13 @@
         <v>94.7895769282409</v>
       </c>
       <c r="W4">
-        <v>73.67646486729704</v>
+        <v>73.67646486729703</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>20.11311206092363</v>
+        <v>20.11311206092362</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1416,7 +1416,7 @@
         <v>1.004126445170396</v>
       </c>
       <c r="D5">
-        <v>0.743053569426093</v>
+        <v>0.7430535694260928</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1434,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05280047687515453</v>
+        <v>0.05280047687515452</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05280047687515453</v>
+        <v>0.05280047687515452</v>
       </c>
       <c r="M5">
         <v>0.05500323290071295</v>
       </c>
       <c r="N5">
-        <v>0.1078037097758497</v>
+        <v>0.1078037097758496</v>
       </c>
       <c r="O5">
         <v>3.010729530588066</v>
@@ -1455,22 +1455,22 @@
         <v>35.80650758582451</v>
       </c>
       <c r="Q5">
-        <v>0.4625380993042306</v>
+        <v>0.4625380993042307</v>
       </c>
       <c r="R5">
-        <v>0.4625380993042306</v>
+        <v>0.4625380993042307</v>
       </c>
       <c r="S5">
-        <v>0.4518569003266782</v>
+        <v>0.4518569003266781</v>
       </c>
       <c r="T5">
-        <v>0.4518569003266782</v>
+        <v>0.4518569003266781</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>35.8065075858186</v>
+        <v>35.80650758581859</v>
       </c>
       <c r="W5">
         <v>17.53743613922083</v>
@@ -1523,7 +1523,7 @@
         <v>0.04899907619075144</v>
       </c>
       <c r="N6">
-        <v>0.06548679395777786</v>
+        <v>0.06548679395777784</v>
       </c>
       <c r="O6">
         <v>1.236121932301711</v>
@@ -1547,7 +1547,7 @@
         <v>0.1246974010718855</v>
       </c>
       <c r="V6">
-        <v>52.97761672737145</v>
+        <v>52.97761672737144</v>
       </c>
       <c r="W6">
         <v>13.33826165215666</v>
@@ -1573,13 +1573,13 @@
         <v>1.017769825328106</v>
       </c>
       <c r="E7">
-        <v>2.556376068802241</v>
+        <v>2.557232498902628</v>
       </c>
       <c r="F7">
-        <v>250.4198745820417</v>
+        <v>250.3360076992225</v>
       </c>
       <c r="G7">
-        <v>246.0476508048486</v>
+        <v>245.9652482018906</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.005904744289228958</v>
+        <v>0.005904744289228119</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.005904744289228958</v>
+        <v>0.005904744289228119</v>
       </c>
       <c r="M7">
         <v>0.0391700395435885</v>
@@ -1606,10 +1606,10 @@
         <v>0.6401673745339901</v>
       </c>
       <c r="P7">
-        <v>70.41093568010967</v>
+        <v>70.41093568010837</v>
       </c>
       <c r="Q7">
-        <v>0.7842263651681008</v>
+        <v>0.784226365168101</v>
       </c>
       <c r="R7">
         <v>0.07180254866467187</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>70.41093567624378</v>
+        <v>70.4109356762438</v>
       </c>
       <c r="W7">
-        <v>9.223750731638452</v>
+        <v>9.223750731637141</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0.01109291335458608</v>
       </c>
       <c r="M8">
-        <v>0.005223362639280213</v>
+        <v>0.005223362639280214</v>
       </c>
       <c r="N8">
         <v>0.0163162759938611</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>41.2086769862381</v>
+        <v>41.20867698623811</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1754,7 +1754,7 @@
         <v>0.00173065520716705</v>
       </c>
       <c r="N9">
-        <v>0.004302654069064557</v>
+        <v>0.004302654069064558</v>
       </c>
       <c r="O9">
         <v>0.1901309270747203</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>22.62995366016197</v>
+        <v>22.62995366016198</v>
       </c>
       <c r="W9">
         <v>10.40751444213237</v>
@@ -1787,7 +1787,7 @@
         <v>3.120000000000001</v>
       </c>
       <c r="Y9">
-        <v>9.102439218039013</v>
+        <v>9.102439218039017</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1804,7 +1804,7 @@
         <v>0.01845083230559224</v>
       </c>
       <c r="E10">
-        <v>28.40080496617866</v>
+        <v>28.43019779563709</v>
       </c>
       <c r="F10">
         <v>0.4124761228512765</v>
@@ -1828,22 +1828,22 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0009082823779981169</v>
+        <v>0.0009080036156890463</v>
       </c>
       <c r="N10">
-        <v>0.001016399620647554</v>
+        <v>0.001016120858338483</v>
       </c>
       <c r="O10">
-        <v>0.01171465391830465</v>
+        <v>0.0117267777586393</v>
       </c>
       <c r="P10">
-        <v>77.53386351250944</v>
+        <v>77.42993296006708</v>
       </c>
       <c r="Q10">
-        <v>0.1045757050944989</v>
+        <v>0.1046839335714382</v>
       </c>
       <c r="R10">
-        <v>0.07247853310525849</v>
+        <v>0.07255354327364973</v>
       </c>
       <c r="S10">
         <v>0.001042809759508912</v>
@@ -1855,7 +1855,7 @@
         <v>0.001042809759508912</v>
       </c>
       <c r="V10">
-        <v>86.76309413284378</v>
+        <v>86.64962185284799</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>77.53386351250944</v>
+        <v>77.42993296006708</v>
       </c>
     </row>
   </sheetData>
